--- a/database/AN_pp/expdata/4000.xlsx
+++ b/database/AN_pp/expdata/4000.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC4066-EF10-1945-BE75-771896E6245A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CE29AC-7D85-F345-9BAA-6805F835975C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="3600" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12880" yWindow="460" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -93,6 +83,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000_ "/>
+    <numFmt numFmtId="166" formatCode="0.000000_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -212,23 +212,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,11 +573,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -606,37 +614,37 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0.21280499999999999</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2.25603E-4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.2122000000000002</v>
+      <c r="A2" s="10">
+        <v>0.22115899999999999</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4.4227600000000004E-3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1.1447300000000001E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2.0938099999999999</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -655,16 +663,16 @@
       </c>
       <c r="K2">
         <f>ASINH(A2*F2/(2*E2))</f>
-        <v>2.959641587997754</v>
+        <v>3.0526919313867418</v>
       </c>
       <c r="L2">
         <f>AVERAGE(K1:K10)</f>
-        <v>3.2582307924827258</v>
-      </c>
-      <c r="M2" s="9">
+        <v>3.314164963428806</v>
+      </c>
+      <c r="M2" s="4">
         <v>0.18</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="4">
         <v>0.23</v>
       </c>
       <c r="O2" t="s">
@@ -672,20 +680,20 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>0.25539899999999999</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.7473200000000001E-4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2.4647199999999998</v>
+      <c r="A3" s="11">
+        <v>0.25682500000000003</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5.3006299999999998E-3</v>
+      </c>
+      <c r="C3" s="14">
+        <v>4.77968E-4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2.28749</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -704,12 +712,12 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K10" si="0">ASINH(A3*F3/(2*E3))</f>
-        <v>3.0336311039240034</v>
-      </c>
-      <c r="M3" s="10">
+        <v>3.1134792649161609</v>
+      </c>
+      <c r="M3" s="5">
         <v>0.23</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="O3" t="s">
@@ -717,20 +725,20 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>0.30341400000000002</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.9311799999999999E-4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2.68303</v>
+      <c r="A4" s="11">
+        <v>0.30373299999999998</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6.6065400000000002E-3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4.74401E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2.5312899999999998</v>
       </c>
       <c r="F4">
         <v>200</v>
@@ -749,12 +757,12 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>3.1206627154628359</v>
-      </c>
-      <c r="M4" s="10">
+        <v>3.1797139146432438</v>
+      </c>
+      <c r="M4" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="5">
         <v>0.33</v>
       </c>
       <c r="O4" t="s">
@@ -762,20 +770,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>0.35309400000000002</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.4239800000000001E-4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.8224100000000001</v>
+      <c r="A5" s="11">
+        <v>0.35284399999999999</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7.8533100000000005E-3</v>
+      </c>
+      <c r="C5" s="14">
+        <v>5.8964100000000001E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.7518500000000001</v>
       </c>
       <c r="F5">
         <v>200</v>
@@ -794,12 +802,12 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3.2212988023244384</v>
-      </c>
-      <c r="M5" s="10">
+        <v>3.2458318826313426</v>
+      </c>
+      <c r="M5" s="5">
         <v>0.33</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="5">
         <v>0.38</v>
       </c>
       <c r="O5" t="s">
@@ -807,20 +815,20 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>0.40296599999999999</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3.1824700000000002E-4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2.9280300000000001</v>
+      <c r="A6" s="11">
+        <v>0.40293899999999999</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7.3878299999999997E-3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>7.6675199999999999E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.9121100000000002</v>
       </c>
       <c r="F6">
         <v>200</v>
@@ -839,12 +847,12 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3.3164017711998528</v>
-      </c>
-      <c r="M6" s="10">
+        <v>3.321772619531417</v>
+      </c>
+      <c r="M6" s="5">
         <v>0.38</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="5">
         <v>0.43</v>
       </c>
       <c r="O6" t="s">
@@ -852,20 +860,20 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>0.45301900000000001</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4.1944900000000002E-4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3.0606100000000001</v>
+      <c r="A7" s="11">
+        <v>0.45319500000000001</v>
+      </c>
+      <c r="B7" s="8">
+        <v>9.8918300000000008E-3</v>
+      </c>
+      <c r="C7" s="14">
+        <v>9.6928800000000001E-4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.0293600000000001</v>
       </c>
       <c r="F7">
         <v>200</v>
@@ -884,12 +892,12 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>3.3890210626185295</v>
-      </c>
-      <c r="M7" s="10">
+        <v>3.3996483881521655</v>
+      </c>
+      <c r="M7" s="5">
         <v>0.43</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="5">
         <v>0.48</v>
       </c>
       <c r="O7" t="s">
@@ -897,20 +905,20 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>0.50291200000000003</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5.5900800000000005E-4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3.2875899999999998</v>
+      <c r="A8" s="11">
+        <v>0.50343199999999999</v>
+      </c>
+      <c r="B8" s="8">
+        <v>9.6207600000000008E-3</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.1997100000000001E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3.1608800000000001</v>
       </c>
       <c r="F8">
         <v>200</v>
@@ -929,12 +937,12 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>3.4218891550071757</v>
-      </c>
-      <c r="M8" s="10">
+        <v>3.4621443526982185</v>
+      </c>
+      <c r="M8" s="5">
         <v>0.48</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="5">
         <v>0.53</v>
       </c>
       <c r="O8" t="s">
@@ -942,20 +950,20 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>0.55311600000000005</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>7.3421900000000004E-4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3.57856</v>
+      <c r="A9" s="11">
+        <v>0.553647</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1.40707E-2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.45853E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3.3071899999999999</v>
       </c>
       <c r="F9">
         <v>200</v>
@@ -974,12 +982,12 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>3.4322141720414443</v>
-      </c>
-      <c r="M9" s="10">
+        <v>3.5118813661636188</v>
+      </c>
+      <c r="M9" s="5">
         <v>0.53</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="5">
         <v>0.57999999999999996</v>
       </c>
       <c r="O9" t="s">
@@ -987,20 +995,20 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.61186099999999999</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>8.2892899999999995E-4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.9701399999999998</v>
+      <c r="A10" s="12">
+        <v>0.61238400000000004</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1.6048699999999999E-2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1.5254400000000001E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3.55531</v>
       </c>
       <c r="F10">
         <v>200</v>
@@ -1019,12 +1027,12 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>3.4293167617685021</v>
-      </c>
-      <c r="M10" s="11">
+        <v>3.5403209507363433</v>
+      </c>
+      <c r="M10" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="6">
         <v>0.65</v>
       </c>
       <c r="O10" t="s">

--- a/database/AN_pp/expdata/4000.xlsx
+++ b/database/AN_pp/expdata/4000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CE29AC-7D85-F345-9BAA-6805F835975C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0A263D-06CF-4548-B6F1-97537F18653A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="460" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="3640" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>xF</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t>jet</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>&lt;y&gt;</t>
-  </si>
-  <si>
-    <t>xFmin</t>
-  </si>
-  <si>
-    <t>xFmax</t>
   </si>
   <si>
     <t>Dependence</t>
@@ -85,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000_ "/>
-    <numFmt numFmtId="166" formatCode="0.000000_ "/>
+    <numFmt numFmtId="165" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +87,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -221,18 +202,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,19 +549,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,33 +594,21 @@
       <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>0.22115899999999999</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>4.4227600000000004E-3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>1.1447300000000001E-3</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>2.0938099999999999</v>
       </c>
       <c r="F2">
@@ -661,38 +626,24 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="K2">
-        <f>ASINH(A2*F2/(2*E2))</f>
-        <v>3.0526919313867418</v>
-      </c>
-      <c r="L2">
-        <f>AVERAGE(K1:K10)</f>
-        <v>3.314164963428806</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="K2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>0.25682500000000003</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>5.3006299999999998E-3</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>4.77968E-4</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>2.28749</v>
       </c>
       <c r="F3">
@@ -710,34 +661,24 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K10" si="0">ASINH(A3*F3/(2*E3))</f>
-        <v>3.1134792649161609</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="K3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>0.30373299999999998</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>6.6065400000000002E-3</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>4.74401E-4</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>2.5312899999999998</v>
       </c>
       <c r="F4">
@@ -755,34 +696,24 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>3.1797139146432438</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="K4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>0.35284399999999999</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>7.8533100000000005E-3</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>5.8964100000000001E-4</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>2.7518500000000001</v>
       </c>
       <c r="F5">
@@ -800,34 +731,24 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>3.2458318826313426</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="K5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>0.40293899999999999</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>7.3878299999999997E-3</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>7.6675199999999999E-4</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>2.9121100000000002</v>
       </c>
       <c r="F6">
@@ -845,34 +766,24 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>3.321772619531417</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>0.45319500000000001</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>9.8918300000000008E-3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>9.6928800000000001E-4</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>3.0293600000000001</v>
       </c>
       <c r="F7">
@@ -890,34 +801,24 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>3.3996483881521655</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="K7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>0.50343199999999999</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>9.6207600000000008E-3</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>1.1997100000000001E-3</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>3.1608800000000001</v>
       </c>
       <c r="F8">
@@ -935,34 +836,24 @@
       <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>3.4621443526982185</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="K8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>0.553647</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>1.40707E-2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>1.45853E-3</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>3.3071899999999999</v>
       </c>
       <c r="F9">
@@ -980,34 +871,24 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>3.5118813661636188</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="K9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>0.61238400000000004</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>1.6048699999999999E-2</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>1.5254400000000001E-3</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>3.55531</v>
       </c>
       <c r="F10">
@@ -1025,17 +906,7 @@
       <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>3.5403209507363433</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="K10" t="s">
         <v>0</v>
       </c>
     </row>

--- a/database/AN_pp/expdata/4000.xlsx
+++ b/database/AN_pp/expdata/4000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0A263D-06CF-4548-B6F1-97537F18653A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287F94F8-3E53-AC47-92B7-A2B4027EDAA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="3640" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1640" yWindow="500" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000_ "/>
-    <numFmt numFmtId="165" formatCode="0.000000_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,21 +88,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,55 +120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -193,24 +134,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -560,7 +491,7 @@
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,24 +522,24 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0.22115899999999999</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>4.4227600000000004E-3</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>1.1447300000000001E-3</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>2.0938099999999999</v>
       </c>
       <c r="F2">
@@ -630,20 +561,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0.25682500000000003</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>5.3006299999999998E-3</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3">
         <v>4.77968E-4</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2.28749</v>
       </c>
       <c r="F3">
@@ -665,20 +596,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>0.30373299999999998</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>6.6065400000000002E-3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4">
         <v>4.74401E-4</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>2.5312899999999998</v>
       </c>
       <c r="F4">
@@ -700,20 +631,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>0.35284399999999999</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>7.8533100000000005E-3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5">
         <v>5.8964100000000001E-4</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2.7518500000000001</v>
       </c>
       <c r="F5">
@@ -735,20 +666,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>0.40293899999999999</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>7.3878299999999997E-3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6">
         <v>7.6675199999999999E-4</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>2.9121100000000002</v>
       </c>
       <c r="F6">
@@ -770,20 +701,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>0.45319500000000001</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>9.8918300000000008E-3</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7">
         <v>9.6928800000000001E-4</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>3.0293600000000001</v>
       </c>
       <c r="F7">
@@ -805,20 +736,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>0.50343199999999999</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>9.6207600000000008E-3</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8">
         <v>1.1997100000000001E-3</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3.1608800000000001</v>
       </c>
       <c r="F8">
@@ -840,20 +771,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>0.553647</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>1.40707E-2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9">
         <v>1.45853E-3</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>3.3071899999999999</v>
       </c>
       <c r="F9">
@@ -875,20 +806,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>0.61238400000000004</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>1.6048699999999999E-2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>1.5254400000000001E-3</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>3.55531</v>
       </c>
       <c r="F10">
